--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_257.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_257.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3703703703703703</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F', 'C/5', 'F/3', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:02:13.449451', '0:02:18.803650')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:37.331000', '0:00:49.319000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>schubert-winterreise_86</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:00:17.360000', '0:00:20.120000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:05.880000', '0:00:12.780000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
@@ -573,355 +580,362 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.86, 22.46)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:32.060000', '0:00:33.280000'), ('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:50.580000', '0:00:59.480000'), ('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4675324675324675</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[('0:00:08.158789', '0:00:24.401147')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[('0:00:20.420000', '0:00:23.500000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:00:09.740000', '0:00:27.080000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.75</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[('0:02:01.080000', '0:02:02.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -929,274 +943,239 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[('0:00:07.900000', '0:00:17.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(87.44, 110.44)]</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
